--- a/data-sample/Threads-Posts&Comments - Sheet1 - Copy.xlsx
+++ b/data-sample/Threads-Posts&Comments - Sheet1 - Copy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="76">
   <si>
     <t>Profile</t>
   </si>
@@ -38,7 +38,10 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>Comments</t>
+    <t>Comments 1</t>
+  </si>
+  <si>
+    <t>Comments 2</t>
   </si>
   <si>
     <t>Image</t>
@@ -65,7 +68,7 @@
     <t>C:\Users\thach.levan1\Documents\image\profile 17</t>
   </si>
   <si>
-    <t>09:30 AM 21/06/2025</t>
+    <t>21:30 21/10/2025</t>
   </si>
   <si>
     <t>profile 2</t>
@@ -83,175 +86,175 @@
     <t>C:\Users\thach.levan1\Documents\image</t>
   </si>
   <si>
-    <t>09:30 AM 21/06/2026</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2027</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2028</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2029</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2030</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2031</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2032</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2033</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2034</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2035</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2036</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2037</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2038</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2039</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2040</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2041</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2042</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2043</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2044</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2045</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2046</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2047</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2048</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2049</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2050</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2051</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2052</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2053</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2054</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2055</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2056</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2057</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2058</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2059</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2060</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2061</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2062</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2063</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2064</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2065</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2066</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2067</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2068</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2069</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2070</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2071</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2072</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2073</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2074</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2075</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2076</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2077</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2078</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2079</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2080</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2081</t>
-  </si>
-  <si>
-    <t>09:30 AM 21/06/2082</t>
+    <t>21:30 21/10/2026</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2027</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2028</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2029</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2030</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2031</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2032</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2033</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2034</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2035</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2036</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2037</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2038</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2039</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2040</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2041</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2042</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2043</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2044</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2045</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2046</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2047</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2048</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2049</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2050</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2051</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2052</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2053</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2054</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2055</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2056</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2057</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2058</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2059</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2060</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2061</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2062</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2063</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2064</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2065</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2066</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2067</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2068</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2069</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2070</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2071</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2072</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2073</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2074</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2075</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2076</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2077</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2078</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2079</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2080</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2081</t>
+  </si>
+  <si>
+    <t>21:30 21/10/2082</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1410,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -1426,1628 +1429,1631 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="7:9">
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data-sample/Threads-Posts&Comments - Sheet1 - Copy.xlsx
+++ b/data-sample/Threads-Posts&Comments - Sheet1 - Copy.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\threads-automation-puppeteer\data-sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6783A877-AD11-4BD1-BCD9-0F57734FFD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25946" yWindow="1260" windowWidth="24685" windowHeight="13029" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27540" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Threads-Posts&amp;Comments - Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,6 +35,12 @@
     <t>Post</t>
   </si>
   <si>
+    <t>subPost1</t>
+  </si>
+  <si>
+    <t>subPost2</t>
+  </si>
+  <si>
     <t>Tag</t>
   </si>
   <si>
@@ -54,10 +56,86 @@
     <t>Schedule</t>
   </si>
   <si>
+    <t>Pin</t>
+  </si>
+  <si>
     <t>profile 17</t>
   </si>
   <si>
-    <t>post example khi ,,, gahshasha. @#?</t>
+    <t xml:space="preserve">Each &lt;article&gt; should be identified, typically by including a heading (&lt;h1&gt; - &lt;h6&gt; element) as a child of the &lt;article&gt; element.
+When an &lt;article&gt; element is nested, the inner element represents an article related to the outer element. For example, the comments of a blog post can be &lt;article&gt; elements nested in the &lt;article&gt; representing the blog post.
+Author information of an &lt;article&gt; element can be provided through the &lt;address&gt; element, but it doesn't apply to nested &lt;article&gt; elements.
+The publication date and time of an &lt;article&gt; element can be described using the datetime attribute of a &lt;time&gt; element.
+Examples
+htmlCopyPlay
+&lt;article class="film_review"&gt;
+&lt;h2&gt;Jurassic Park&lt;/h2&gt;
+&lt;section class="main_review"&gt;
+&lt;h3&gt;Review&lt;/h3&gt;
+&lt;p&gt;Dinos were great!&lt;/p&gt;
+&lt;/section&gt;
+&lt;section class="user_reviews"&gt;
+&lt;h3&gt;User reviews&lt;/h3&gt;
+&lt;article class="user_review"&gt;
+&lt;h4&gt;Too scary!&lt;/h4&gt;
+&lt;p&gt;Way too scary for me.&lt;/p&gt;
+&lt;footer&gt;
+&lt;p&gt;
+Posted on
+&lt;time datetime="2015-05-16 19:00"&gt;May 16&lt;/time&gt;
+by Lisa.
+&lt;/p&gt;
+&lt;/footer&gt;
+&lt;/article&gt;
+&lt;article class="user_review"&gt;
+&lt;h4&gt;Love the dinos!&lt;/h4&gt;
+&lt;p&gt;I agree, dinos are my favorite.&lt;/p&gt;
+&lt;footer&gt;
+&lt;p&gt;
+Posted on
+&lt;time datetime="2015-05-17 19:00"&gt;May 17&lt;/time&gt;
+by Tom.
+&lt;/p&gt;
+&lt;/footer&gt;
+&lt;/article&gt;
+&lt;/section&gt;
+&lt;footer&gt;
+&lt;p&gt;
+Posted on
+&lt;time datetime="2015-05-15 19:00"&gt;May 15&lt;/time&gt;
+by Staff.
+&lt;/p&gt;
+&lt;/footer&gt;
+&lt;/article&gt;
+Result
+Play
+Technical summary
+Content categories
+Flow content, sectioning content, palpable content
+Permitted content
+Flow content.
+Tag omission
+None, both the starting and ending tag are mandatory.
+Permitted parents
+Any element that accepts flow content. Note that an &lt;article&gt; element must not be a descendant of an &lt;address&gt; element.
+Implicit ARIA role
+article
+Permitted ARIA roles
+application, document, feed, main, none, presentation, region
+DOM interface
+HTMLElement
+Specifications
+Specification
+HTML
+# the-article-element
+Browser compatibility
+</t>
+  </si>
+  <si>
+    <t>đây là subposst 1</t>
+  </si>
+  <si>
+    <t>còn đây là subposst 2</t>
   </si>
   <si>
     <t>quá okê, tôi biết sao? 17</t>
@@ -253,28 +331,19 @@
   </si>
   <si>
     <t>21:30 21/10/2082</t>
-  </si>
-  <si>
-    <t>subPost1</t>
-  </si>
-  <si>
-    <t>đây là subposst 1</t>
-  </si>
-  <si>
-    <t>subPost2</t>
-  </si>
-  <si>
-    <t>còn đây là subposst 2</t>
-  </si>
-  <si>
-    <t>Pin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,16 +351,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -299,169 +698,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -472,7 +1047,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -500,40 +1075,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -791,24 +1480,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.2666666666667" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="20.8666666666667" customWidth="1"/>
+    <col min="8" max="8" width="43.7333333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -819,62 +1508,62 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="9:10">
       <c r="I3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -882,25 +1571,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -908,25 +1597,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -934,25 +1623,25 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -960,25 +1649,25 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -986,25 +1675,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -1012,25 +1701,25 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1038,25 +1727,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1064,25 +1753,25 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -1090,25 +1779,25 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -1116,25 +1805,25 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -1142,25 +1831,25 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1168,25 +1857,25 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1194,25 +1883,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -1220,25 +1909,25 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1246,25 +1935,25 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1272,25 +1961,25 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1298,25 +1987,25 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1324,25 +2013,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -1350,25 +2039,25 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -1376,25 +2065,25 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -1402,25 +2091,25 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1428,25 +2117,25 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -1454,25 +2143,25 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1480,25 +2169,25 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -1506,25 +2195,25 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -1532,25 +2221,25 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -1558,25 +2247,25 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -1584,25 +2273,25 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -1610,25 +2299,25 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -1636,25 +2325,25 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
@@ -1662,25 +2351,25 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -1688,25 +2377,25 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -1714,25 +2403,25 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -1740,25 +2429,25 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -1766,25 +2455,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -1792,25 +2481,25 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
@@ -1818,25 +2507,25 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
@@ -1844,25 +2533,25 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
@@ -1870,25 +2559,25 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -1896,25 +2585,25 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
@@ -1922,25 +2611,25 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -1948,25 +2637,25 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
@@ -1974,25 +2663,25 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
@@ -2000,25 +2689,25 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -2026,25 +2715,25 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
@@ -2052,25 +2741,25 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
@@ -2078,25 +2767,25 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
@@ -2104,25 +2793,25 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
@@ -2130,25 +2819,25 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -2156,25 +2845,25 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
@@ -2182,25 +2871,25 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J54" t="b">
         <v>1</v>
@@ -2208,25 +2897,25 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
@@ -2234,25 +2923,25 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
@@ -2260,25 +2949,25 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
@@ -2286,25 +2975,25 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
@@ -2312,25 +3001,25 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J59" t="b">
         <v>1</v>
@@ -2338,25 +3027,25 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J60" t="b">
         <v>1</v>
@@ -2364,5 +3053,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>